--- a/Assignment_3/Todos.xlsx
+++ b/Assignment_3/Todos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hugo\Documents\GitHub\EconomicsOfCyber\Assignment_3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="8595" windowHeight="4680"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="8592" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -69,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +94,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -117,6 +129,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -165,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +213,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,6 +265,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -411,41 +460,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="71.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -453,15 +502,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -469,7 +518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -477,15 +526,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -493,7 +542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -501,7 +550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -520,7 +569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -532,7 +581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
